--- a/specsheet.xlsx
+++ b/specsheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="229">
   <si>
     <t>Flow Control Commune Pvt Ltd</t>
   </si>
@@ -355,7 +355,7 @@
     <t>Control Valve Specification Sheet</t>
   </si>
   <si>
-    <t>Customer_2</t>
+    <t>Customer_1</t>
   </si>
   <si>
     <t>Liquid / Fuel Oil Gr1 / Bitumen</t>
@@ -496,13 +496,13 @@
     <t>Case3</t>
   </si>
   <si>
-    <t>501</t>
+    <t>502</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>101</t>
+    <t>102</t>
   </si>
   <si>
     <t>Case4</t>
@@ -652,55 +652,55 @@
     <t>Liquid</t>
   </si>
   <si>
+    <t>m3/hr</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>centipose</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>316L SS ASTM A351 CF3M</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>m3/hr</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>centipose</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>dB</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t>inch</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>ASTM A216 WCC</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Standard for Service</t>
   </si>
   <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>over</t>
+    <t>Contoured</t>
+  </si>
+  <si>
+    <t>under</t>
   </si>
   <si>
     <t>316 SS</t>
   </si>
   <si>
-    <t>ANSI Class II</t>
+    <t>ANSI Class IV</t>
   </si>
   <si>
     <t>N/A</t>
@@ -830,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -838,6 +838,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,7 +849,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -877,7 +880,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1250,8 +1253,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>1</v>
+      <c r="C5" s="5">
+        <v>2</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1279,8 +1282,8 @@
       <c r="G6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>220</v>
+      <c r="H6" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1319,7 +1322,7 @@
       <c r="G8" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
       <c r="I8" s="4"/>
@@ -1340,7 +1343,7 @@
         <v>155</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1351,17 +1354,17 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>210</v>
       </c>
       <c r="G11" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="4">
-        <v>100</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>213</v>
+      <c r="I11" s="6">
+        <v>221</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1374,58 +1377,62 @@
       <c r="G12" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <v>275.5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1433,21 +1440,25 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1455,21 +1466,25 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>9</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1477,21 +1492,25 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="4">
         <v>30</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>30</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>30</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1499,7 +1518,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1507,11 +1526,15 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.9</v>
+      </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4">
+        <v>0.9</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1519,21 +1542,25 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1541,21 +1568,25 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1563,7 +1594,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1571,11 +1602,15 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>0.82</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.82</v>
+      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4">
+        <v>0.82</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1583,7 +1618,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1591,11 +1626,15 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
-        <v>3691.779</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>109.674</v>
+      </c>
+      <c r="E22" s="4">
+        <v>109.674</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>109.674</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1603,21 +1642,25 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="4">
-        <v>64</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="E23" s="4">
+        <v>67</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>67</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1625,21 +1668,25 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="4">
-        <v>16.73</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>38.83</v>
+      </c>
+      <c r="E24" s="4">
+        <v>38.83</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>38.83</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1647,21 +1694,25 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="4">
-        <v>1.013</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>3.384</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3.384</v>
+      </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4">
+        <v>3.384</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1669,21 +1720,25 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D26" s="4">
-        <v>1.013</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>3.384</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3.384</v>
+      </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>3.384</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1691,21 +1746,25 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="D27" s="4">
+        <v>8.632</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8.632</v>
+      </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4">
+        <v>8.632</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1713,7 +1772,7 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1731,770 +1790,770 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="D29" s="8"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="5" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="6">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="6">
+        <v>600</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="4">
-        <v>16</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="4">
-        <v>600</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="7" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="7" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="7" t="s">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="7" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -2518,7 +2577,7 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B64" s="4"/>
@@ -2534,7 +2593,7 @@
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B65" s="4"/>
@@ -2550,7 +2609,7 @@
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B66" s="4"/>
@@ -2566,7 +2625,7 @@
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="4"/>
@@ -2582,7 +2641,7 @@
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B68" s="4"/>
@@ -2598,7 +2657,7 @@
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B69" s="4"/>
@@ -2614,7 +2673,7 @@
       <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B70" s="4"/>
@@ -2630,7 +2689,7 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B71" s="4"/>
@@ -2646,7 +2705,7 @@
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B72" s="4"/>
@@ -2665,11 +2724,11 @@
       <c r="A73" t="s">
         <v>205</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="175">
